--- a/data/trans_camb/P23_10_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_10_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,58</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 3,08</t>
+          <t>-5,91; 5,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 0,03</t>
+          <t>-7,39; 4,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 5,89</t>
+          <t>-6,86; 7,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 2,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 0,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 13,57</t>
+          <t>-5,82; 4,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 1,7</t>
+          <t>-7,2; 3,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,49; -0,74</t>
+          <t>0,47; 14,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 7,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 3,96</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 2,84</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 10,02</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-29,99%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-52,43%</t>
+          <t>-4,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,42%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-40,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>85,83%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-23,44%</t>
+          <t>-16,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-47,05%</t>
+          <t>126,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-10,26%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>71,85%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-73,98; 47,49</t>
+          <t>-54,26; 172,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-83,34; 3,9</t>
+          <t>-62,84; 133,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,23; 80,09</t>
+          <t>-66,85; 203,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-57,63; 53,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,81; 16,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 236,73</t>
+          <t>-56,04; 154,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,49; 24,24</t>
+          <t>-66,02; 110,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,85; -9,6</t>
+          <t>-6,46; 475,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 109,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-42,3; 101,65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-49,02; 79,37</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-13,22; 226,28</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,71</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,96</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 3,49</t>
+          <t>-7,55; 4,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 2,75</t>
+          <t>-7,93; 1,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 3,88</t>
+          <t>-10,57; 0,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; -0,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 0,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 2,94</t>
+          <t>-9,38; -0,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 0,36</t>
+          <t>-9,07; -0,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 0,33</t>
+          <t>-7,51; 2,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 0,52</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; -0,19</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 0,08</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,09%</t>
+          <t>-9,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,82%</t>
+          <t>-20,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>-36,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-41,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-36,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,02%</t>
+          <t>-48,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-25,03%</t>
+          <t>-44,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-22,09%</t>
+          <t>-28,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-29,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-31,75%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-32,14%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,62; 58,96</t>
+          <t>-56,18; 70,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-42,24; 43,32</t>
+          <t>-56,79; 27,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 65,58</t>
+          <t>-71,22; 13,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-63,61; -5,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,81; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 46,26</t>
+          <t>-71,33; -12,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,71; 8,13</t>
+          <t>-68,63; -8,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,06; 5,18</t>
+          <t>-60,93; 38,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 35,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-55,03; 8,71</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-53,37; -1,24</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-57,7; 2,17</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,96</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 1,37</t>
+          <t>-4,64; 2,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,0</t>
+          <t>-3,55; 3,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 5,87</t>
+          <t>-1,7; 10,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,86; -0,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 2,53</t>
+          <t>-6,24; -0,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; -0,39</t>
+          <t>-4,46; 1,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,63</t>
+          <t>-3,88; 3,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 2,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 0,14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 1,65</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 5,05</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-23,76%</t>
+          <t>-16,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>45,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-53,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-32,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-18,12%</t>
+          <t>-53,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-40,49%</t>
+          <t>-29,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,43%</t>
+          <t>-5,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-36,93%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-10,71%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>17,55%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,87; 46,59</t>
+          <t>-61,74; 82,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,85; 123,17</t>
+          <t>-47,15; 114,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,07; 183,01</t>
+          <t>-32,69; 331,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-76,31; -10,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,77; 25,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,36; 59,42</t>
+          <t>-79,5; 1,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-62,88; -8,63</t>
+          <t>-59,13; 44,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 40,11</t>
+          <t>-53,45; 88,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,36; 61,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-62,1; 8,0</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-41,58; 44,24</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-28,3; 127,96</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,52</t>
+          <t>-3,38; 4,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 3,92</t>
+          <t>-4,4; 2,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -1,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,73</t>
+          <t>-5,45; 1,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; -0,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; -0,38</t>
+          <t>-5,12; 1,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 3,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 1,64</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 1,44</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,88%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>-16,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-38,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-37,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>-27,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-26,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-26,29%</t>
+          <t>-24,2%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-14,48%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-20,91%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 25,14</t>
+          <t>-45,97; 101,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,74; 21,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 63,56</t>
+          <t>-57,69; 60,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,27; -17,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-53,18; -11,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 76,8</t>
+          <t>-60,93; 31,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,72; -5,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-42,02; -5,84</t>
+          <t>-56,54; 32,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 54,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-45,76; 29,66</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-48,1; 27,21</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,73</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 2,4</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 1,94</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 1,76</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; -0,98</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; -0,96</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 1,93</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 0,1</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; -0,13</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 1,11</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-2,58%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-1,71%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-9,47%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-37,34%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-36,68%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-2,43%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-21,04%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-20,27%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-5,73%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-33,15; 42,22</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-28,45; 35,28</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-39,21; 29,18</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-53,2; -14,57</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-53,44; -14,24</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-29,23; 30,49</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-38,14; 2,5</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-37,0; -1,46</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-27,31; 18,12</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
